--- a/content/Book Ten 1st Half 1-10.xlsx
+++ b/content/Book Ten 1st Half 1-10.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF69CCC5-1F49-405D-9E5A-F2F595ED956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0F7569-24B9-4104-8DAC-6FD5091E2830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="923" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 10-1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9264" uniqueCount="5605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9281" uniqueCount="5615">
   <si>
     <t>श्रीमद्भागवतमहापुराणम्</t>
   </si>
@@ -16838,25 +16838,47 @@
     <t>3-PS</t>
   </si>
   <si>
-    <t>SHLOKA 19 MISSING</t>
+    <t>भूमौ निधाय तं गोपी विस्मिता भारपीडिता ।</t>
+  </si>
+  <si>
+    <t>महापुरुषमादध्यौ जगतामास कर्मसु ॥१९॥</t>
+  </si>
+  <si>
+    <t>भूमौ निधाय तम् गोपी</t>
+  </si>
+  <si>
+    <t>विस्मिता भार-पीडिता</t>
+  </si>
+  <si>
+    <t>महापुरुम्-आदध्यौ</t>
+  </si>
+  <si>
+    <t>जगताम्-आस कर्मसु</t>
+  </si>
+  <si>
+    <t>The Gopi, Yashoda was oppressed by His weight, and was surprised as she placed Him on the floor. Then, contemplating on the Supreme Person, she got involved in worldly duties.</t>
+  </si>
+  <si>
+    <t>on the floor placing Him, Gopi (Yashoda)</t>
+  </si>
+  <si>
+    <t>surprised, by weight oppressed,</t>
+  </si>
+  <si>
+    <t>The Supreme Person contemplated on,</t>
+  </si>
+  <si>
+    <t>of the worldly, involved, in duties</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -16882,7 +16904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -16914,7 +16936,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17255,9 +17276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E531"/>
   <sheetViews>
-    <sheetView topLeftCell="A521" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A539" sqref="A539"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -58911,9 +58930,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E304"/>
+  <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="92" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -58925,31 +58944,40 @@
     <col min="6" max="16384" width="92" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D1" s="13" t="s">
-        <v>5604</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5592</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5593</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5594</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5595</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5596</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5592</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5593</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5594</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5595</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5596</v>
+        <v>5597</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5597</v>
+        <v>5598</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -58958,12 +58986,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5598</v>
+        <v>5599</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -58972,38 +59000,38 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5599</v>
+        <v>5603</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>1844</v>
+      <c r="D5" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5603</v>
+        <v>5601</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -59014,24 +59042,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1846</v>
+        <v>1848</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4611</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -59042,13 +59073,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>4611</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -59059,13 +59090,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -59076,44 +59107,41 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1850</v>
+        <v>4612</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4612</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>4614</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1854</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -59124,24 +59152,27 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1853</v>
+        <v>4615</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4623</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -59152,13 +59183,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -59169,13 +59200,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>4616</v>
+        <v>1855</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4624</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -59186,13 +59217,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1855</v>
+        <v>4617</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1856</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -59203,16 +59234,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>4617</v>
+        <v>4619</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>4618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5600</v>
       </c>
@@ -59220,44 +59251,41 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>4619</v>
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4621</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4620</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>4621</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>4622</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>1857</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1858</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -59268,24 +59296,27 @@
         <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1859</v>
+        <v>4625</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4626</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -59296,13 +59327,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>4625</v>
+        <v>4627</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>4626</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -59313,13 +59344,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>4627</v>
+        <v>1860</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>4628</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -59330,61 +59361,58 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1860</v>
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4629</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5603</v>
+      </c>
+      <c r="B29" s="1">
         <v>4</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>4629</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4630</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>5602</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>1862</v>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>5603</v>
+        <v>5601</v>
       </c>
       <c r="B30" s="1">
         <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>97</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -59395,24 +59423,27 @@
         <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B32" s="1">
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1864</v>
+        <v>1865</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1873</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -59423,13 +59454,13 @@
         <v>4</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -59440,13 +59471,13 @@
         <v>4</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1866</v>
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1867</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -59457,13 +59488,13 @@
         <v>4</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>1867</v>
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1868</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -59474,13 +59505,13 @@
         <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -59491,13 +59522,13 @@
         <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1877</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -59508,13 +59539,13 @@
         <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1870</v>
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1871</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>4631</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -59525,44 +59556,41 @@
         <v>4</v>
       </c>
       <c r="C39" s="1">
-        <v>7</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>1871</v>
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1872</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="219" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1872</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>4632</v>
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -59573,24 +59601,27 @@
         <v>5</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B43" s="1">
         <v>5</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1881</v>
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -59601,13 +59632,13 @@
         <v>5</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>1882</v>
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1883</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -59618,13 +59649,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1891</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -59635,13 +59666,13 @@
         <v>5</v>
       </c>
       <c r="C46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>4821</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -59652,13 +59683,13 @@
         <v>5</v>
       </c>
       <c r="C47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -59669,13 +59700,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -59686,13 +59717,13 @@
         <v>5</v>
       </c>
       <c r="C49" s="1">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1887</v>
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1888</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -59703,44 +59734,41 @@
         <v>5</v>
       </c>
       <c r="C50" s="1">
-        <v>7</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>1888</v>
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1889</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B51" s="1">
         <v>5</v>
       </c>
       <c r="C51" s="1">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1889</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B52" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>4633</v>
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1897</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -59751,24 +59779,27 @@
         <v>6</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1897</v>
+        <v>2</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>4634</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B54" s="1">
         <v>6</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>4634</v>
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1905</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -59779,13 +59810,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -59796,13 +59827,13 @@
         <v>6</v>
       </c>
       <c r="C56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1906</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -59813,13 +59844,13 @@
         <v>6</v>
       </c>
       <c r="C57" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>4635</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -59830,13 +59861,13 @@
         <v>6</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1907</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -59847,13 +59878,13 @@
         <v>6</v>
       </c>
       <c r="C59" s="1">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>1902</v>
+        <v>6</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>1903</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>4636</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -59864,13 +59895,13 @@
         <v>6</v>
       </c>
       <c r="C60" s="1">
-        <v>6</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>1903</v>
+        <v>7</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1909</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -59881,44 +59912,41 @@
         <v>6</v>
       </c>
       <c r="C61" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B62" s="1">
         <v>6</v>
       </c>
       <c r="C62" s="1">
-        <v>8</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B63" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>1912</v>
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -59929,24 +59957,27 @@
         <v>7</v>
       </c>
       <c r="C64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B65" s="1">
         <v>7</v>
       </c>
       <c r="C65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1914</v>
+        <v>4638</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>4640</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -59957,13 +59988,13 @@
         <v>7</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4640</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -59974,13 +60005,13 @@
         <v>7</v>
       </c>
       <c r="C67" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>4637</v>
+        <v>1915</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>4639</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -59991,13 +60022,13 @@
         <v>7</v>
       </c>
       <c r="C68" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -60008,13 +60039,13 @@
         <v>7</v>
       </c>
       <c r="C69" s="1">
-        <v>4</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>1916</v>
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>1917</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>4642</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -60025,13 +60056,13 @@
         <v>7</v>
       </c>
       <c r="C70" s="1">
-        <v>5</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>1917</v>
+        <v>6</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1918</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -60042,13 +60073,13 @@
         <v>7</v>
       </c>
       <c r="C71" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -60059,44 +60090,41 @@
         <v>7</v>
       </c>
       <c r="C72" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B73" s="1">
         <v>7</v>
       </c>
       <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>5601</v>
+      </c>
+      <c r="B74" s="1">
         <v>8</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>5602</v>
-      </c>
-      <c r="B74" s="1">
-        <v>7</v>
-      </c>
       <c r="C74" s="1">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>1925</v>
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -60107,24 +60135,27 @@
         <v>8</v>
       </c>
       <c r="C75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B76" s="1">
         <v>8</v>
       </c>
       <c r="C76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1927</v>
+        <v>1930</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -60135,13 +60166,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -60152,13 +60183,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1937</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -60169,13 +60200,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>4822</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -60186,13 +60217,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="1">
-        <v>4</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1929</v>
+        <v>5</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>1932</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1938</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -60203,13 +60234,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="1">
-        <v>5</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>1932</v>
+        <v>6</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1933</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>384</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -60220,13 +60251,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -60237,44 +60268,41 @@
         <v>8</v>
       </c>
       <c r="C83" s="1">
-        <v>7</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>1934</v>
+        <v>8</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>1935</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B84" s="1">
         <v>8</v>
       </c>
       <c r="C84" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B85" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>4823</v>
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -60285,24 +60313,27 @@
         <v>9</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B87" s="1">
         <v>9</v>
       </c>
       <c r="C87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1943</v>
+        <v>4643</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>4644</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -60313,13 +60344,13 @@
         <v>9</v>
       </c>
       <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>4643</v>
+        <v>2</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>1944</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>4644</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -60330,13 +60361,13 @@
         <v>9</v>
       </c>
       <c r="C89" s="1">
-        <v>2</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>1944</v>
+        <v>3</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>4645</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1945</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -60347,44 +60378,41 @@
         <v>9</v>
       </c>
       <c r="C90" s="1">
-        <v>3</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>4645</v>
+        <v>4</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>4647</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>4646</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B91" s="1">
         <v>9</v>
       </c>
       <c r="C91" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>4647</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>4648</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B92" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>4649</v>
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>4650</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -60395,24 +60423,27 @@
         <v>10</v>
       </c>
       <c r="C93" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>4650</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B94" s="1">
         <v>10</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1946</v>
+        <v>4651</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>4652</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -60423,13 +60454,13 @@
         <v>10</v>
       </c>
       <c r="C95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>4651</v>
+        <v>4653</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4652</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -60440,13 +60471,13 @@
         <v>10</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>4653</v>
+        <v>3</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>4654</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>4824</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -60457,44 +60488,41 @@
         <v>10</v>
       </c>
       <c r="C97" s="1">
-        <v>3</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>4654</v>
+        <v>4</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>4656</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>4655</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B98" s="1">
         <v>10</v>
       </c>
       <c r="C98" s="1">
-        <v>4</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>4656</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>4657</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B99" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>4825</v>
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1947</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -60505,24 +60533,27 @@
         <v>11</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B101" s="1">
         <v>11</v>
       </c>
       <c r="C101" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1948</v>
+        <v>1949</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>1950</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -60533,13 +60564,13 @@
         <v>11</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1949</v>
+        <v>4658</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1950</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -60550,13 +60581,13 @@
         <v>11</v>
       </c>
       <c r="C103" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>4658</v>
+        <v>4660</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>4659</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -60567,44 +60598,41 @@
         <v>11</v>
       </c>
       <c r="C104" s="1">
-        <v>3</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>4660</v>
+        <v>4</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>4662</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>4661</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B105" s="1">
         <v>11</v>
       </c>
       <c r="C105" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>4662</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>4663</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B106" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" s="1">
-        <v>0</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>4664</v>
+        <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -60615,24 +60643,27 @@
         <v>12</v>
       </c>
       <c r="C107" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B108" s="1">
         <v>12</v>
       </c>
       <c r="C108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1952</v>
+        <v>4665</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>4666</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -60643,13 +60674,13 @@
         <v>12</v>
       </c>
       <c r="C109" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>4665</v>
+        <v>4667</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>4666</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -60660,13 +60691,13 @@
         <v>12</v>
       </c>
       <c r="C110" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>4667</v>
+        <v>4669</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>4668</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -60677,44 +60708,41 @@
         <v>12</v>
       </c>
       <c r="C111" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>4669</v>
+        <v>1953</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B112" s="1">
         <v>12</v>
       </c>
       <c r="C112" s="1">
-        <v>4</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>1953</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B113" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C113" s="1">
-        <v>0</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>4671</v>
+        <v>1</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1955</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -60725,24 +60753,27 @@
         <v>13</v>
       </c>
       <c r="C114" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1955</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B115" s="1">
         <v>13</v>
       </c>
       <c r="C115" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>4672</v>
+        <v>4673</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>4826</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -60753,13 +60784,13 @@
         <v>13</v>
       </c>
       <c r="C116" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>4673</v>
+        <v>1956</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>4826</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -60770,13 +60801,13 @@
         <v>13</v>
       </c>
       <c r="C117" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1956</v>
+        <v>4674</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1958</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -60787,44 +60818,41 @@
         <v>13</v>
       </c>
       <c r="C118" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>4674</v>
+        <v>1957</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>4675</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B119" s="1">
         <v>13</v>
       </c>
       <c r="C119" s="1">
-        <v>4</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B120" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>4827</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -60835,24 +60863,27 @@
         <v>14</v>
       </c>
       <c r="C121" s="1">
-        <v>1</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>1961</v>
+        <v>2</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1960</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B122" s="1">
         <v>14</v>
       </c>
       <c r="C122" s="1">
-        <v>2</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>1960</v>
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>1964</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -60863,13 +60894,13 @@
         <v>14</v>
       </c>
       <c r="C123" s="1">
-        <v>1</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>1962</v>
+        <v>2</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>1963</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -60880,13 +60911,13 @@
         <v>14</v>
       </c>
       <c r="C124" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1963</v>
+        <v>4676</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1965</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -60897,44 +60928,41 @@
         <v>14</v>
       </c>
       <c r="C125" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>4678</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B126" s="1">
         <v>14</v>
       </c>
       <c r="C126" s="1">
-        <v>4</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>4677</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>4679</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B127" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C127" s="1">
-        <v>0</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>4680</v>
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>1966</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -60945,24 +60973,27 @@
         <v>15</v>
       </c>
       <c r="C128" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B129" s="1">
         <v>15</v>
       </c>
       <c r="C129" s="1">
-        <v>2</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>1967</v>
+        <v>1</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>1970</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -60973,13 +61004,13 @@
         <v>15</v>
       </c>
       <c r="C130" s="1">
-        <v>1</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>1968</v>
+        <v>2</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>1969</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -60990,13 +61021,13 @@
         <v>15</v>
       </c>
       <c r="C131" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1969</v>
+        <v>4681</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1971</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -61007,44 +61038,41 @@
         <v>15</v>
       </c>
       <c r="C132" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>4681</v>
+        <v>4683</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>4682</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B133" s="1">
         <v>15</v>
       </c>
       <c r="C133" s="1">
-        <v>4</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>4683</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>4684</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B134" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C134" s="1">
-        <v>0</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>4685</v>
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>1972</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -61055,24 +61083,27 @@
         <v>16</v>
       </c>
       <c r="C135" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B136" s="1">
         <v>16</v>
       </c>
       <c r="C136" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1973</v>
+        <v>1974</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -61083,13 +61114,13 @@
         <v>16</v>
       </c>
       <c r="C137" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1974</v>
+        <v>4686</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1975</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -61100,13 +61131,13 @@
         <v>16</v>
       </c>
       <c r="C138" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>4686</v>
+        <v>4688</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>4687</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -61117,44 +61148,41 @@
         <v>16</v>
       </c>
       <c r="C139" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>4688</v>
+        <v>4690</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>4689</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B140" s="1">
         <v>16</v>
       </c>
       <c r="C140" s="1">
-        <v>4</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>4690</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>4691</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B141" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C141" s="1">
-        <v>0</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>4692</v>
+        <v>1</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -61165,24 +61193,27 @@
         <v>17</v>
       </c>
       <c r="C142" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B143" s="1">
         <v>17</v>
       </c>
       <c r="C143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1977</v>
+        <v>4693</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>4828</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -61193,13 +61224,13 @@
         <v>17</v>
       </c>
       <c r="C144" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>4828</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -61210,13 +61241,13 @@
         <v>17</v>
       </c>
       <c r="C145" s="1">
-        <v>2</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>4694</v>
+        <v>3</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>4696</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>4695</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -61227,44 +61258,41 @@
         <v>17</v>
       </c>
       <c r="C146" s="1">
-        <v>3</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>4696</v>
+        <v>4</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>1978</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>4697</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B147" s="1">
         <v>17</v>
       </c>
       <c r="C147" s="1">
-        <v>4</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>1978</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B148" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C148" s="1">
-        <v>0</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>4698</v>
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -61275,24 +61303,27 @@
         <v>18</v>
       </c>
       <c r="C149" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1980</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B150" s="1">
         <v>18</v>
       </c>
       <c r="C150" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>4699</v>
+        <v>4700</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>4702</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -61303,13 +61334,13 @@
         <v>18</v>
       </c>
       <c r="C151" s="1">
-        <v>1</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>4700</v>
+        <v>2</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>4701</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -61320,13 +61351,13 @@
         <v>18</v>
       </c>
       <c r="C152" s="1">
-        <v>2</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>4701</v>
+        <v>3</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>4704</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>4703</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -61337,44 +61368,41 @@
         <v>18</v>
       </c>
       <c r="C153" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>4704</v>
+        <v>4706</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>4705</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B154" s="1">
         <v>18</v>
       </c>
       <c r="C154" s="1">
-        <v>4</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>4706</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>4707</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B155" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>4708</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -61385,24 +61413,27 @@
         <v>19</v>
       </c>
       <c r="C156" s="1">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>1981</v>
+        <v>2</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>5605</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B157" s="1">
         <v>19</v>
       </c>
       <c r="C157" s="1">
-        <v>2</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>4709</v>
+        <v>1</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>5606</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>5611</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -61413,13 +61444,13 @@
         <v>19</v>
       </c>
       <c r="C158" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>4710</v>
+        <v>5607</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>4711</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -61430,13 +61461,13 @@
         <v>19</v>
       </c>
       <c r="C159" s="1">
-        <v>2</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>4712</v>
+        <v>3</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>5608</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>4713</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -61447,44 +61478,41 @@
         <v>19</v>
       </c>
       <c r="C160" s="1">
-        <v>3</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>4714</v>
+        <v>4</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>5609</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>4715</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B161" s="1">
         <v>19</v>
       </c>
       <c r="C161" s="1">
-        <v>4</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>4716</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>4717</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B162" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C162" s="1">
-        <v>0</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>1982</v>
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -61495,24 +61523,27 @@
         <v>20</v>
       </c>
       <c r="C163" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1985</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B164" s="1">
         <v>20</v>
       </c>
       <c r="C164" s="1">
-        <v>2</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>1983</v>
+        <v>1</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>4710</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>4711</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -61523,13 +61554,13 @@
         <v>20</v>
       </c>
       <c r="C165" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1984</v>
+        <v>4712</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>4829</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -61540,13 +61571,13 @@
         <v>20</v>
       </c>
       <c r="C166" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>4718</v>
+        <v>4714</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>4719</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -61557,44 +61588,41 @@
         <v>20</v>
       </c>
       <c r="C167" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>4720</v>
+        <v>4716</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>4721</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B168" s="1">
         <v>20</v>
       </c>
       <c r="C168" s="1">
-        <v>4</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>1986</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B169" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C169" s="1">
-        <v>0</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>4830</v>
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>1985</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -61605,24 +61633,27 @@
         <v>21</v>
       </c>
       <c r="C170" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B171" s="1">
         <v>21</v>
       </c>
       <c r="C171" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1989</v>
+        <v>1984</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>4829</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -61633,13 +61664,13 @@
         <v>21</v>
       </c>
       <c r="C172" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>4722</v>
+        <v>4718</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>4723</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -61650,13 +61681,13 @@
         <v>21</v>
       </c>
       <c r="C173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>4724</v>
+        <v>4720</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>4725</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -61667,44 +61698,41 @@
         <v>21</v>
       </c>
       <c r="C174" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>4726</v>
+        <v>1986</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>4727</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B175" s="1">
         <v>21</v>
       </c>
       <c r="C175" s="1">
-        <v>4</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>4728</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>4729</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B176" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C176" s="1">
-        <v>0</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>1990</v>
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>1988</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -61715,24 +61743,27 @@
         <v>22</v>
       </c>
       <c r="C177" s="1">
-        <v>1</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>1991</v>
+        <v>2</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>1989</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B178" s="1">
         <v>22</v>
       </c>
       <c r="C178" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1992</v>
+        <v>4722</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>4723</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -61743,13 +61774,13 @@
         <v>22</v>
       </c>
       <c r="C179" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>4730</v>
+        <v>4724</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>4731</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -61760,13 +61791,13 @@
         <v>22</v>
       </c>
       <c r="C180" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>4732</v>
+        <v>4726</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>4733</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -61777,44 +61808,41 @@
         <v>22</v>
       </c>
       <c r="C181" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1993</v>
+        <v>4728</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B182" s="1">
         <v>22</v>
       </c>
       <c r="C182" s="1">
-        <v>4</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>1994</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B183" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C183" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>4734</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -61825,24 +61853,27 @@
         <v>23</v>
       </c>
       <c r="C184" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B185" s="1">
         <v>23</v>
       </c>
       <c r="C185" s="1">
-        <v>2</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>1997</v>
+        <v>1</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>4730</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>4731</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -61853,13 +61884,13 @@
         <v>23</v>
       </c>
       <c r="C186" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>2002</v>
+        <v>4732</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>2001</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -61870,13 +61901,13 @@
         <v>23</v>
       </c>
       <c r="C187" s="1">
-        <v>2</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>4735</v>
+        <v>3</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>1993</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>4736</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -61887,106 +61918,106 @@
         <v>23</v>
       </c>
       <c r="C188" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B189" s="1">
         <v>23</v>
       </c>
       <c r="C189" s="1">
-        <v>4</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>4737</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>4738</v>
+        <v>0</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>4734</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B190" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C190" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>4739</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>4740</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B191" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C191" s="1">
-        <v>6</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>2000</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>5602</v>
+        <v>5600</v>
       </c>
       <c r="B192" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C192" s="1">
-        <v>0</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>2005</v>
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B193" s="1">
         <v>24</v>
       </c>
       <c r="C193" s="1">
-        <v>1</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>2007</v>
+        <v>2</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>4735</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>4736</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B194" s="1">
         <v>24</v>
       </c>
       <c r="C194" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>2006</v>
+        <v>1999</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>2004</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -61997,13 +62028,13 @@
         <v>24</v>
       </c>
       <c r="C195" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>4741</v>
+        <v>4737</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>4743</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -62014,13 +62045,13 @@
         <v>24</v>
       </c>
       <c r="C196" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>4742</v>
+        <v>4739</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>4744</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -62031,106 +62062,106 @@
         <v>24</v>
       </c>
       <c r="C197" s="1">
-        <v>3</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>2008</v>
+        <v>6</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>2000</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B198" s="1">
         <v>24</v>
       </c>
       <c r="C198" s="1">
-        <v>4</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>2009</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>2012</v>
+        <v>0</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>2005</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B199" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C199" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B200" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C200" s="1">
-        <v>6</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>4745</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>4746</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>5602</v>
+        <v>5600</v>
       </c>
       <c r="B201" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C201" s="1">
-        <v>0</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>2014</v>
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>4741</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>4743</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B202" s="1">
         <v>25</v>
       </c>
       <c r="C202" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>2016</v>
+        <v>4742</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>4744</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B203" s="1">
         <v>25</v>
       </c>
       <c r="C203" s="1">
-        <v>2</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>2015</v>
+        <v>3</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>2011</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -62141,13 +62172,13 @@
         <v>25</v>
       </c>
       <c r="C204" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>2022</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -62158,13 +62189,13 @@
         <v>25</v>
       </c>
       <c r="C205" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>4747</v>
+        <v>2010</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>4748</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -62175,66 +62206,60 @@
         <v>25</v>
       </c>
       <c r="C206" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>4749</v>
+        <v>4745</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>4750</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B207" s="1">
         <v>25</v>
       </c>
       <c r="C207" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>2018</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B208" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C208" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>2019</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B209" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C209" s="1">
-        <v>0</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>4751</v>
+        <v>2</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>2015</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B210" s="1">
         <v>26</v>
@@ -62243,12 +62268,15 @@
         <v>1</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>2023</v>
+        <v>2017</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>2022</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B211" s="1">
         <v>26</v>
@@ -62257,7 +62285,10 @@
         <v>2</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>2024</v>
+        <v>4747</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>4748</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -62268,13 +62299,13 @@
         <v>26</v>
       </c>
       <c r="C212" s="1">
-        <v>1</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>4752</v>
+        <v>3</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>4749</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>4753</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -62285,13 +62316,13 @@
         <v>26</v>
       </c>
       <c r="C213" s="1">
-        <v>2</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>4754</v>
+        <v>4</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>2018</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>4755</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -62302,44 +62333,41 @@
         <v>26</v>
       </c>
       <c r="C214" s="1">
-        <v>3</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>4756</v>
+        <v>5</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>2019</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>4757</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B215" s="1">
         <v>26</v>
       </c>
       <c r="C215" s="1">
-        <v>4</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>4758</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>4759</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B216" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C216" s="1">
-        <v>0</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>4831</v>
+        <v>1</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>2023</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -62350,24 +62378,27 @@
         <v>27</v>
       </c>
       <c r="C217" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B218" s="1">
         <v>27</v>
       </c>
       <c r="C218" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>2026</v>
+        <v>4752</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>4753</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -62378,13 +62409,13 @@
         <v>27</v>
       </c>
       <c r="C219" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>4760</v>
+        <v>4754</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>4762</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -62395,13 +62426,13 @@
         <v>27</v>
       </c>
       <c r="C220" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>4761</v>
+        <v>4756</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>4763</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -62412,44 +62443,41 @@
         <v>27</v>
       </c>
       <c r="C221" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>4764</v>
+        <v>4758</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>4765</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B222" s="1">
         <v>27</v>
       </c>
       <c r="C222" s="1">
-        <v>4</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>4766</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>4767</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B223" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C223" s="1">
-        <v>0</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>4832</v>
+        <v>1</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>2025</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -62460,24 +62488,27 @@
         <v>28</v>
       </c>
       <c r="C224" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B225" s="1">
         <v>28</v>
       </c>
       <c r="C225" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>4768</v>
+        <v>4760</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>4762</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -62488,13 +62519,13 @@
         <v>28</v>
       </c>
       <c r="C226" s="1">
-        <v>1</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>4769</v>
+        <v>2</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>4761</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>4770</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -62505,13 +62536,13 @@
         <v>28</v>
       </c>
       <c r="C227" s="1">
-        <v>2</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>4771</v>
+        <v>3</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>4764</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>4772</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -62522,120 +62553,123 @@
         <v>28</v>
       </c>
       <c r="C228" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>2028</v>
+        <v>4766</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B229" s="1">
         <v>28</v>
       </c>
       <c r="C229" s="1">
-        <v>4</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>4773</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>4774</v>
+        <v>0</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>4832</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B230" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C230" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>4776</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>4778</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B231" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C231" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>4775</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>4777</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>4768</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>5602</v>
+        <v>5600</v>
       </c>
       <c r="B232" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C232" s="1">
-        <v>0</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>4833</v>
+        <v>1</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>4769</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>4770</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B233" s="1">
         <v>29</v>
       </c>
       <c r="C233" s="1">
-        <v>1</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>2032</v>
+        <v>2</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>4771</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>4772</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B234" s="1">
         <v>29</v>
       </c>
       <c r="C234" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>2030</v>
+        <v>2028</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>2029</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B235" s="1">
         <v>29</v>
       </c>
       <c r="C235" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>2031</v>
+        <v>4773</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>4774</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -62646,13 +62680,13 @@
         <v>29</v>
       </c>
       <c r="C236" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>4779</v>
+        <v>4776</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>4780</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -62663,81 +62697,69 @@
         <v>29</v>
       </c>
       <c r="C237" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>4781</v>
+        <v>4775</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>4782</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B238" s="1">
         <v>29</v>
       </c>
       <c r="C238" s="1">
-        <v>3</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>4783</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>4784</v>
+        <v>0</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>4833</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B239" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C239" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>2033</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B240" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C240" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>2034</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>2038</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B241" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C241" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>2039</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -62745,16 +62767,16 @@
         <v>5600</v>
       </c>
       <c r="B242" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C242" s="1">
-        <v>7</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>4785</v>
+        <v>1</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>4779</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>4786</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -62762,16 +62784,16 @@
         <v>5600</v>
       </c>
       <c r="B243" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C243" s="1">
-        <v>8</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>4787</v>
+        <v>2</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>4781</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>4788</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -62779,58 +62801,67 @@
         <v>5600</v>
       </c>
       <c r="B244" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C244" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>2036</v>
+        <v>4783</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>5602</v>
+        <v>5600</v>
       </c>
       <c r="B245" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C245" s="1">
-        <v>0</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>2041</v>
+        <v>4</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>2037</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B246" s="1">
         <v>30</v>
       </c>
       <c r="C246" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>2042</v>
+        <v>2034</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>2038</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B247" s="1">
         <v>30</v>
       </c>
       <c r="C247" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>2043</v>
+        <v>2035</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>2039</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -62841,13 +62872,13 @@
         <v>30</v>
       </c>
       <c r="C248" s="1">
-        <v>1</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>2045</v>
+        <v>7</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>4785</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>2047</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -62858,13 +62889,13 @@
         <v>30</v>
       </c>
       <c r="C249" s="1">
-        <v>2</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>2046</v>
+        <v>8</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>4787</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>2048</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -62875,106 +62906,106 @@
         <v>30</v>
       </c>
       <c r="C250" s="1">
-        <v>3</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>4789</v>
+        <v>9</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>2036</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>4790</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B251" s="1">
         <v>30</v>
       </c>
       <c r="C251" s="1">
-        <v>4</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>4791</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>4792</v>
+        <v>0</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>2041</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B252" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C252" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>4793</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>4794</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B253" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C253" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>2044</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>5602</v>
+        <v>5600</v>
       </c>
       <c r="B254" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C254" s="1">
-        <v>0</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>4795</v>
+        <v>1</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>2047</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B255" s="1">
         <v>31</v>
       </c>
       <c r="C255" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>2050</v>
+        <v>2046</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>2048</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B256" s="1">
         <v>31</v>
       </c>
       <c r="C256" s="1">
-        <v>2</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>2057</v>
+        <v>3</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>4789</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>4790</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -62985,13 +63016,13 @@
         <v>31</v>
       </c>
       <c r="C257" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>2051</v>
+        <v>4791</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2060</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -63002,13 +63033,13 @@
         <v>31</v>
       </c>
       <c r="C258" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>2052</v>
+        <v>4793</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>2061</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -63019,64 +63050,55 @@
         <v>31</v>
       </c>
       <c r="C259" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>2053</v>
+        <v>2044</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B260" s="1">
         <v>31</v>
       </c>
       <c r="C260" s="1">
-        <v>4</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>2054</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>2063</v>
+        <v>0</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>4795</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B261" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C261" s="1">
-        <v>5</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>2055</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>2064</v>
+        <v>1</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>2050</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B262" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C262" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>2056</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>2065</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -63084,16 +63106,16 @@
         <v>5600</v>
       </c>
       <c r="B263" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C263" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -63101,58 +63123,67 @@
         <v>5600</v>
       </c>
       <c r="B264" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C264" s="1">
-        <v>8</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>2059</v>
+        <v>2</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>2052</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>5602</v>
+        <v>5600</v>
       </c>
       <c r="B265" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C265" s="1">
-        <v>0</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>4796</v>
+        <v>3</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>2062</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B266" s="1">
         <v>32</v>
       </c>
       <c r="C266" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>2068</v>
+        <v>2054</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>2063</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B267" s="1">
         <v>32</v>
       </c>
       <c r="C267" s="1">
-        <v>2</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>2069</v>
+        <v>5</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>2064</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -63163,13 +63194,13 @@
         <v>32</v>
       </c>
       <c r="C268" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>4797</v>
+        <v>2056</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>4798</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -63180,13 +63211,13 @@
         <v>32</v>
       </c>
       <c r="C269" s="1">
-        <v>2</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>2070</v>
+        <v>7</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>2058</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>4834</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -63197,44 +63228,41 @@
         <v>32</v>
       </c>
       <c r="C270" s="1">
-        <v>3</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>2071</v>
+        <v>8</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>2059</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B271" s="1">
         <v>32</v>
       </c>
       <c r="C271" s="1">
-        <v>4</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>2074</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>4796</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B272" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C272" s="1">
-        <v>0</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>4835</v>
+        <v>1</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>2068</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -63245,24 +63273,27 @@
         <v>33</v>
       </c>
       <c r="C273" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B274" s="1">
         <v>33</v>
       </c>
       <c r="C274" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>2076</v>
+        <v>4797</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>4798</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -63273,13 +63304,13 @@
         <v>33</v>
       </c>
       <c r="C275" s="1">
-        <v>1</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>2077</v>
+        <v>2</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>2070</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>2079</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -63290,13 +63321,13 @@
         <v>33</v>
       </c>
       <c r="C276" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>4799</v>
+        <v>2071</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>4800</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -63307,44 +63338,41 @@
         <v>33</v>
       </c>
       <c r="C277" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>4801</v>
+        <v>2074</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>4802</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B278" s="1">
         <v>33</v>
       </c>
       <c r="C278" s="1">
-        <v>4</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>2078</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B279" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C279" s="1">
-        <v>0</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>2081</v>
+        <v>1</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>2075</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -63355,24 +63383,27 @@
         <v>34</v>
       </c>
       <c r="C280" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>2083</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B281" s="1">
         <v>34</v>
       </c>
       <c r="C281" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>2082</v>
+        <v>2077</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>2079</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -63383,13 +63414,13 @@
         <v>34</v>
       </c>
       <c r="C282" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>4803</v>
+        <v>4799</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>4804</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -63400,13 +63431,13 @@
         <v>34</v>
       </c>
       <c r="C283" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>2084</v>
+        <v>4801</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>2086</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -63417,44 +63448,41 @@
         <v>34</v>
       </c>
       <c r="C284" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>4805</v>
+        <v>2078</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>4806</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B285" s="1">
         <v>34</v>
       </c>
       <c r="C285" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>2085</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B286" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C286" s="1">
-        <v>0</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>2088</v>
+        <v>1</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>2083</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -63465,24 +63493,27 @@
         <v>35</v>
       </c>
       <c r="C287" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>2089</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B288" s="1">
         <v>35</v>
       </c>
       <c r="C288" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>2090</v>
+        <v>4803</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>4804</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -63493,13 +63524,13 @@
         <v>35</v>
       </c>
       <c r="C289" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>4807</v>
+        <v>2084</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>4808</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -63510,13 +63541,13 @@
         <v>35</v>
       </c>
       <c r="C290" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>2091</v>
+        <v>4805</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>2094</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -63527,106 +63558,106 @@
         <v>35</v>
       </c>
       <c r="C291" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>4809</v>
+        <v>2085</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>4810</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B292" s="1">
         <v>35</v>
       </c>
       <c r="C292" s="1">
-        <v>4</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>4811</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>4812</v>
+        <v>0</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>2088</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B293" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C293" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="B294" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C294" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>2093</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>5602</v>
+        <v>5600</v>
       </c>
       <c r="B295" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C295" s="1">
-        <v>0</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>2097</v>
+        <v>1</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>4807</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>4808</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B296" s="1">
         <v>36</v>
       </c>
       <c r="C296" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>2098</v>
+        <v>2091</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>2094</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B297" s="1">
         <v>36</v>
       </c>
       <c r="C297" s="1">
-        <v>2</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>2099</v>
+        <v>3</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>4809</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>4810</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -63637,13 +63668,13 @@
         <v>36</v>
       </c>
       <c r="C298" s="1">
-        <v>1</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>4813</v>
+        <v>4</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>4811</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>4814</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -63654,13 +63685,13 @@
         <v>36</v>
       </c>
       <c r="C299" s="1">
-        <v>2</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>4815</v>
+        <v>5</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>2092</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>4816</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -63671,44 +63702,41 @@
         <v>36</v>
       </c>
       <c r="C300" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B301" s="1">
         <v>36</v>
       </c>
       <c r="C301" s="1">
-        <v>4</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>4817</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>4818</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B302" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C302" s="1">
-        <v>0</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>4819</v>
+        <v>1</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>2098</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -63719,23 +63747,119 @@
         <v>37</v>
       </c>
       <c r="C303" s="1">
-        <v>1</v>
-      </c>
-      <c r="D303" s="7" t="s">
-        <v>4820</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>5602</v>
+        <v>5600</v>
       </c>
       <c r="B304" s="1">
         <v>37</v>
       </c>
       <c r="C304" s="1">
+        <v>1</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>4813</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="B305" s="1">
+        <v>37</v>
+      </c>
+      <c r="C305" s="1">
+        <v>2</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>4815</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="B306" s="1">
+        <v>37</v>
+      </c>
+      <c r="C306" s="1">
+        <v>3</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="B307" s="1">
+        <v>37</v>
+      </c>
+      <c r="C307" s="1">
+        <v>4</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>4817</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>5602</v>
+      </c>
+      <c r="B308" s="1">
+        <v>37</v>
+      </c>
+      <c r="C308" s="1">
         <v>0</v>
       </c>
-      <c r="D304" s="7" t="s">
+      <c r="D308" s="3" t="s">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>5601</v>
+      </c>
+      <c r="B309" s="1">
+        <v>38</v>
+      </c>
+      <c r="C309" s="1">
+        <v>1</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>5602</v>
+      </c>
+      <c r="B310" s="1">
+        <v>38</v>
+      </c>
+      <c r="C310" s="1">
+        <v>0</v>
+      </c>
+      <c r="D310" s="7" t="s">
         <v>4836</v>
       </c>
     </row>
